--- a/config_10.26/game_activity_config.xlsx
+++ b/config_10.26/game_activity_config.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="295">
   <si>
     <t>line|行号</t>
   </si>
@@ -1138,6 +1138,54 @@
   </si>
   <si>
     <t>狂欢排行榜</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>hghd</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_come_back_courtesy</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_062_hghd</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_062_hghd","hgqd_panel",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_062_hghd","hgly_panel",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>超值礼包</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_062_hghd","hgtq_panel",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归签到</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归礼遇</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归特权</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_062_hghd</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_062_hghd</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1798,13 +1846,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:O110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J111" sqref="J111"/>
+      <selection pane="bottomRight" activeCell="H117" sqref="H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6666,6 +6714,182 @@
         <v>15</v>
       </c>
     </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A107" s="6">
+        <v>106</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C107" s="8">
+        <v>106</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F107" s="6">
+        <v>1</v>
+      </c>
+      <c r="G107" s="6">
+        <v>1</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I107" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J107" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K107" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L107" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="N107" s="6">
+        <v>1</v>
+      </c>
+      <c r="O107" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A108" s="6">
+        <v>107</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C108" s="8">
+        <v>107</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F108" s="6">
+        <v>2</v>
+      </c>
+      <c r="G108" s="6">
+        <v>1</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I108" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J108" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K108" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L108" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="N108" s="6">
+        <v>1</v>
+      </c>
+      <c r="O108" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A109" s="6">
+        <v>108</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C109" s="8">
+        <v>108</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F109" s="6">
+        <v>3</v>
+      </c>
+      <c r="G109" s="6">
+        <v>1</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I109" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J109" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K109" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L109" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="N109" s="6">
+        <v>1</v>
+      </c>
+      <c r="O109" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A110" s="6">
+        <v>109</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C110" s="8">
+        <v>109</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F110" s="6">
+        <v>4</v>
+      </c>
+      <c r="G110" s="6">
+        <v>1</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I110" s="6">
+        <v>-1</v>
+      </c>
+      <c r="J110" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K110" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="N110" s="6">
+        <v>1</v>
+      </c>
+      <c r="O110" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:O75"/>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -6676,14 +6900,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6693,18 +6921,14 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6715,13 +6939,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -6733,13 +6957,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_10.26/game_activity_config.xlsx
+++ b/config_10.26/game_activity_config.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="296">
   <si>
     <t>line|行号</t>
   </si>
@@ -1186,6 +1186,10 @@
   </si>
   <si>
     <t>act_062_hghd</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_062_hghd","czlb_panel",</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1849,10 +1853,10 @@
   <dimension ref="A1:O110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E90" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H117" sqref="H117"/>
+      <selection pane="bottomRight" activeCell="N113" sqref="N113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6834,10 +6838,10 @@
         <v>21</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="N109" s="6">
         <v>1</v>
@@ -6900,18 +6904,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6921,14 +6921,18 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6939,13 +6943,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -6957,13 +6961,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
